--- a/dades/2S2.xlsx
+++ b/dades/2S2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mique_000\Desktop\Jocs (Notes)\Nimby Rails\Transports de Catalunya\Calculadores\dades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B718190-AE1A-4A78-A300-8589A14805E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C11F7FC-E64C-456A-A258-ADD3198ED270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2253" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3597" uniqueCount="159">
   <si>
     <t>departure</t>
   </si>
@@ -295,6 +295,225 @@
   <si>
     <t>CCS-6</t>
   </si>
+  <si>
+    <t>R21A.001</t>
+  </si>
+  <si>
+    <t>R21A</t>
+  </si>
+  <si>
+    <t>el Prat Aeroport</t>
+  </si>
+  <si>
+    <t>R21A.002</t>
+  </si>
+  <si>
+    <t>Maçanet - Massanes</t>
+  </si>
+  <si>
+    <t>R21A.003</t>
+  </si>
+  <si>
+    <t>R21A.004</t>
+  </si>
+  <si>
+    <t>R21A.005</t>
+  </si>
+  <si>
+    <t>R21A.006</t>
+  </si>
+  <si>
+    <t>R21A.007</t>
+  </si>
+  <si>
+    <t>R21A.008</t>
+  </si>
+  <si>
+    <t>R21A.009</t>
+  </si>
+  <si>
+    <t>R21A.010</t>
+  </si>
+  <si>
+    <t>R21A.011</t>
+  </si>
+  <si>
+    <t>R21A.012</t>
+  </si>
+  <si>
+    <t>R21A.013</t>
+  </si>
+  <si>
+    <t>R21A.014</t>
+  </si>
+  <si>
+    <t>R21A.015</t>
+  </si>
+  <si>
+    <t>R21A.016</t>
+  </si>
+  <si>
+    <t>R21A.017</t>
+  </si>
+  <si>
+    <t>R21A.018</t>
+  </si>
+  <si>
+    <t>R21A.019</t>
+  </si>
+  <si>
+    <t>R21A.020</t>
+  </si>
+  <si>
+    <t>R21A.021</t>
+  </si>
+  <si>
+    <t>R21A.022</t>
+  </si>
+  <si>
+    <t>R21A.023</t>
+  </si>
+  <si>
+    <t>R21A.024</t>
+  </si>
+  <si>
+    <t>R21A.025</t>
+  </si>
+  <si>
+    <t>R21A.026</t>
+  </si>
+  <si>
+    <t>R21A.027</t>
+  </si>
+  <si>
+    <t>R21A.028</t>
+  </si>
+  <si>
+    <t>R21A.029</t>
+  </si>
+  <si>
+    <t>R21A.030</t>
+  </si>
+  <si>
+    <t>R21A.031</t>
+  </si>
+  <si>
+    <t>R21A.032</t>
+  </si>
+  <si>
+    <t>R21A.033</t>
+  </si>
+  <si>
+    <t>R21A.034</t>
+  </si>
+  <si>
+    <t>R21A.035</t>
+  </si>
+  <si>
+    <t>R21A.036</t>
+  </si>
+  <si>
+    <t>R21A.037</t>
+  </si>
+  <si>
+    <t>R21A.038</t>
+  </si>
+  <si>
+    <t>R21A.039</t>
+  </si>
+  <si>
+    <t>R21A.040</t>
+  </si>
+  <si>
+    <t>R21A.041</t>
+  </si>
+  <si>
+    <t>R21A.042</t>
+  </si>
+  <si>
+    <t>R21A.043</t>
+  </si>
+  <si>
+    <t>R21A.044</t>
+  </si>
+  <si>
+    <t>R21A.045</t>
+  </si>
+  <si>
+    <t>R21A.046</t>
+  </si>
+  <si>
+    <t>R21A.047</t>
+  </si>
+  <si>
+    <t>R21A.048</t>
+  </si>
+  <si>
+    <t>R21A.049</t>
+  </si>
+  <si>
+    <t>R21A.050</t>
+  </si>
+  <si>
+    <t>R21A.051</t>
+  </si>
+  <si>
+    <t>R21A.052</t>
+  </si>
+  <si>
+    <t>R21A.053</t>
+  </si>
+  <si>
+    <t>R21A.054</t>
+  </si>
+  <si>
+    <t>R21A.055</t>
+  </si>
+  <si>
+    <t>R21A.056</t>
+  </si>
+  <si>
+    <t>R21A.057</t>
+  </si>
+  <si>
+    <t>R21A.058</t>
+  </si>
+  <si>
+    <t>R21A.059</t>
+  </si>
+  <si>
+    <t>R21A.060</t>
+  </si>
+  <si>
+    <t>R21A.061</t>
+  </si>
+  <si>
+    <t>R21A.062</t>
+  </si>
+  <si>
+    <t>R21A.063</t>
+  </si>
+  <si>
+    <t>R21A.064</t>
+  </si>
+  <si>
+    <t>R21A.065</t>
+  </si>
+  <si>
+    <t>R21A.066</t>
+  </si>
+  <si>
+    <t>R21A.067</t>
+  </si>
+  <si>
+    <t>R21A.068</t>
+  </si>
+  <si>
+    <t>R21A.069</t>
+  </si>
+  <si>
+    <t>R21A.070</t>
+  </si>
 </sst>
 </file>
 
@@ -344,7 +563,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -628,10 +850,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E569"/>
+  <dimension ref="A1:E1129"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A656" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E683" sqref="E683"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10748,6 +10970,5590 @@
         <v>6</v>
       </c>
     </row>
+    <row r="570" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A570" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B570" s="1">
+        <v>0.23778935185185182</v>
+      </c>
+      <c r="C570" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D570" t="s">
+        <v>87</v>
+      </c>
+      <c r="E570" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="571" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A571" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B571" s="1">
+        <v>0.23931712962962962</v>
+      </c>
+      <c r="C571" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D571" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E571" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="572" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A572" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B572" s="1">
+        <v>0.24082175925925928</v>
+      </c>
+      <c r="C572" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D572" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E572" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="573" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A573" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B573" s="1">
+        <v>0.24221064814814816</v>
+      </c>
+      <c r="C573" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D573" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E573" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="574" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A574" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B574" s="1">
+        <v>0.24296296296296296</v>
+      </c>
+      <c r="C574" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D574" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E574" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="575" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A575" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B575" s="1">
+        <v>0.2439351851851852</v>
+      </c>
+      <c r="C575" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D575" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E575" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="576" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A576" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B576" s="1">
+        <v>0.24578703703703705</v>
+      </c>
+      <c r="C576" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D576" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E576" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="577" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A577" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B577" s="1">
+        <v>0.24797453703703706</v>
+      </c>
+      <c r="C577" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D577" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E577" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="578" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A578" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B578" s="1">
+        <v>0.263587962962963</v>
+      </c>
+      <c r="C578" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D578" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E578" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="579" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A579" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B579" s="1">
+        <v>0.26613425925925926</v>
+      </c>
+      <c r="C579" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D579" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E579" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="580" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A580" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B580" s="1">
+        <v>0.26799768518518519</v>
+      </c>
+      <c r="C580" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D580" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E580" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="581" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A581" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B581" s="1">
+        <v>0.26871527777777776</v>
+      </c>
+      <c r="C581" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D581" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E581" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="582" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A582" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B582" s="1">
+        <v>0.26979166666666665</v>
+      </c>
+      <c r="C582" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D582" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E582" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="583" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A583" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B583" s="1">
+        <v>0.27114583333333336</v>
+      </c>
+      <c r="C583" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D583" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E583" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="584" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A584" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B584" s="1">
+        <v>0.27266203703703701</v>
+      </c>
+      <c r="C584" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D584" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E584" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="585" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A585" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B585" s="1">
+        <v>0.2738888888888889</v>
+      </c>
+      <c r="C585" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D585" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E585" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="586" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A586" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B586" s="1">
+        <f>B570+(2.5/24)</f>
+        <v>0.34195601851851848</v>
+      </c>
+      <c r="C586" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D586" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E586" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="587" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A587" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B587" s="4">
+        <f t="shared" ref="B587:B650" si="10">B571+(2.5/24)</f>
+        <v>0.34348379629629627</v>
+      </c>
+      <c r="C587" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D587" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E587" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="588" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A588" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B588" s="4">
+        <f t="shared" si="10"/>
+        <v>0.34498842592592593</v>
+      </c>
+      <c r="C588" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D588" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E588" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="589" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A589" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B589" s="4">
+        <f t="shared" si="10"/>
+        <v>0.34637731481481482</v>
+      </c>
+      <c r="C589" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D589" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E589" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="590" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A590" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B590" s="4">
+        <f t="shared" si="10"/>
+        <v>0.34712962962962962</v>
+      </c>
+      <c r="C590" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D590" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E590" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="591" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A591" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B591" s="4">
+        <f t="shared" si="10"/>
+        <v>0.34810185185185188</v>
+      </c>
+      <c r="C591" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D591" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E591" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="592" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A592" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B592" s="4">
+        <f t="shared" si="10"/>
+        <v>0.34995370370370371</v>
+      </c>
+      <c r="C592" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D592" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E592" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="593" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A593" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B593" s="4">
+        <f t="shared" si="10"/>
+        <v>0.35214120370370372</v>
+      </c>
+      <c r="C593" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D593" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E593" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="594" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A594" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B594" s="4">
+        <f t="shared" si="10"/>
+        <v>0.36775462962962968</v>
+      </c>
+      <c r="C594" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D594" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E594" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="595" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A595" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B595" s="4">
+        <f t="shared" si="10"/>
+        <v>0.37030092592592595</v>
+      </c>
+      <c r="C595" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D595" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E595" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="596" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A596" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B596" s="4">
+        <f t="shared" si="10"/>
+        <v>0.37216435185185187</v>
+      </c>
+      <c r="C596" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D596" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E596" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="597" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A597" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B597" s="4">
+        <f t="shared" si="10"/>
+        <v>0.37288194444444445</v>
+      </c>
+      <c r="C597" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D597" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E597" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="598" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A598" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B598" s="4">
+        <f t="shared" si="10"/>
+        <v>0.37395833333333334</v>
+      </c>
+      <c r="C598" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D598" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E598" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="599" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A599" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B599" s="4">
+        <f t="shared" si="10"/>
+        <v>0.37531250000000005</v>
+      </c>
+      <c r="C599" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D599" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E599" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="600" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A600" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B600" s="4">
+        <f t="shared" si="10"/>
+        <v>0.37682870370370369</v>
+      </c>
+      <c r="C600" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D600" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E600" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="601" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A601" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B601" s="4">
+        <f t="shared" si="10"/>
+        <v>0.37805555555555559</v>
+      </c>
+      <c r="C601" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D601" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E601" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="602" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A602" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B602" s="4">
+        <f t="shared" si="10"/>
+        <v>0.44612268518518516</v>
+      </c>
+      <c r="C602" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D602" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E602" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="603" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A603" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B603" s="4">
+        <f t="shared" si="10"/>
+        <v>0.44765046296296296</v>
+      </c>
+      <c r="C603" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D603" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E603" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="604" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A604" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B604" s="4">
+        <f t="shared" si="10"/>
+        <v>0.44915509259259262</v>
+      </c>
+      <c r="C604" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D604" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E604" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="605" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A605" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B605" s="4">
+        <f t="shared" si="10"/>
+        <v>0.4505439814814815</v>
+      </c>
+      <c r="C605" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D605" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E605" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="606" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A606" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B606" s="4">
+        <f t="shared" si="10"/>
+        <v>0.45129629629629631</v>
+      </c>
+      <c r="C606" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D606" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E606" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="607" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A607" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B607" s="4">
+        <f t="shared" si="10"/>
+        <v>0.45226851851851857</v>
+      </c>
+      <c r="C607" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D607" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E607" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="608" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A608" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B608" s="4">
+        <f t="shared" si="10"/>
+        <v>0.4541203703703704</v>
+      </c>
+      <c r="C608" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D608" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E608" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="609" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A609" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B609" s="4">
+        <f t="shared" si="10"/>
+        <v>0.45630787037037041</v>
+      </c>
+      <c r="C609" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D609" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E609" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="610" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A610" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B610" s="4">
+        <f t="shared" si="10"/>
+        <v>0.47192129629629637</v>
+      </c>
+      <c r="C610" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D610" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E610" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="611" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A611" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B611" s="4">
+        <f t="shared" si="10"/>
+        <v>0.47446759259259264</v>
+      </c>
+      <c r="C611" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D611" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E611" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="612" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A612" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B612" s="4">
+        <f t="shared" si="10"/>
+        <v>0.47633101851851856</v>
+      </c>
+      <c r="C612" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D612" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E612" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="613" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A613" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B613" s="4">
+        <f t="shared" si="10"/>
+        <v>0.47704861111111113</v>
+      </c>
+      <c r="C613" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D613" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E613" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="614" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A614" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B614" s="4">
+        <f t="shared" si="10"/>
+        <v>0.47812500000000002</v>
+      </c>
+      <c r="C614" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D614" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E614" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="615" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A615" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B615" s="4">
+        <f t="shared" si="10"/>
+        <v>0.47947916666666673</v>
+      </c>
+      <c r="C615" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D615" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E615" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="616" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A616" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B616" s="4">
+        <f t="shared" si="10"/>
+        <v>0.48099537037037038</v>
+      </c>
+      <c r="C616" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D616" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E616" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="617" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A617" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B617" s="4">
+        <f t="shared" si="10"/>
+        <v>0.48222222222222227</v>
+      </c>
+      <c r="C617" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D617" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E617" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="618" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A618" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B618" s="4">
+        <f t="shared" si="10"/>
+        <v>0.55028935185185179</v>
+      </c>
+      <c r="C618" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D618" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E618" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="619" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A619" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B619" s="4">
+        <f t="shared" si="10"/>
+        <v>0.55181712962962959</v>
+      </c>
+      <c r="C619" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D619" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E619" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="620" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A620" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B620" s="4">
+        <f t="shared" si="10"/>
+        <v>0.5533217592592593</v>
+      </c>
+      <c r="C620" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D620" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E620" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="621" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A621" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B621" s="4">
+        <f t="shared" si="10"/>
+        <v>0.55471064814814819</v>
+      </c>
+      <c r="C621" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D621" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E621" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="622" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A622" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B622" s="4">
+        <f t="shared" si="10"/>
+        <v>0.55546296296296294</v>
+      </c>
+      <c r="C622" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D622" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E622" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="623" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A623" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B623" s="4">
+        <f t="shared" si="10"/>
+        <v>0.5564351851851852</v>
+      </c>
+      <c r="C623" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D623" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E623" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="624" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A624" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B624" s="4">
+        <f t="shared" si="10"/>
+        <v>0.55828703703703708</v>
+      </c>
+      <c r="C624" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D624" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E624" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="625" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A625" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B625" s="4">
+        <f t="shared" si="10"/>
+        <v>0.56047453703703709</v>
+      </c>
+      <c r="C625" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D625" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E625" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="626" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A626" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B626" s="4">
+        <f t="shared" si="10"/>
+        <v>0.57608796296296305</v>
+      </c>
+      <c r="C626" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D626" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E626" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="627" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A627" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B627" s="4">
+        <f t="shared" si="10"/>
+        <v>0.57863425925925926</v>
+      </c>
+      <c r="C627" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D627" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E627" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="628" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A628" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B628" s="4">
+        <f t="shared" si="10"/>
+        <v>0.58049768518518519</v>
+      </c>
+      <c r="C628" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D628" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E628" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="629" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A629" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B629" s="4">
+        <f t="shared" si="10"/>
+        <v>0.58121527777777782</v>
+      </c>
+      <c r="C629" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D629" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E629" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="630" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A630" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B630" s="4">
+        <f t="shared" si="10"/>
+        <v>0.58229166666666665</v>
+      </c>
+      <c r="C630" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D630" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E630" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="631" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A631" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B631" s="4">
+        <f t="shared" si="10"/>
+        <v>0.58364583333333342</v>
+      </c>
+      <c r="C631" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D631" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E631" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="632" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A632" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B632" s="4">
+        <f t="shared" si="10"/>
+        <v>0.58516203703703706</v>
+      </c>
+      <c r="C632" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D632" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E632" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="633" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A633" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B633" s="4">
+        <f t="shared" si="10"/>
+        <v>0.58638888888888896</v>
+      </c>
+      <c r="C633" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D633" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E633" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="634" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A634" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B634" s="4">
+        <f t="shared" si="10"/>
+        <v>0.65445601851851842</v>
+      </c>
+      <c r="C634" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D634" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E634" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="635" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A635" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B635" s="4">
+        <f t="shared" si="10"/>
+        <v>0.65598379629629622</v>
+      </c>
+      <c r="C635" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D635" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E635" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="636" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A636" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B636" s="4">
+        <f t="shared" si="10"/>
+        <v>0.65748842592592593</v>
+      </c>
+      <c r="C636" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D636" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E636" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="637" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A637" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B637" s="4">
+        <f t="shared" si="10"/>
+        <v>0.65887731481481482</v>
+      </c>
+      <c r="C637" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D637" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E637" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="638" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A638" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B638" s="4">
+        <f t="shared" si="10"/>
+        <v>0.65962962962962957</v>
+      </c>
+      <c r="C638" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D638" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E638" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="639" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A639" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B639" s="4">
+        <f t="shared" si="10"/>
+        <v>0.66060185185185183</v>
+      </c>
+      <c r="C639" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D639" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E639" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="640" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A640" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B640" s="4">
+        <f t="shared" si="10"/>
+        <v>0.66245370370370371</v>
+      </c>
+      <c r="C640" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D640" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E640" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="641" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A641" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B641" s="4">
+        <f t="shared" si="10"/>
+        <v>0.66464120370370372</v>
+      </c>
+      <c r="C641" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D641" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E641" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="642" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A642" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B642" s="4">
+        <f t="shared" si="10"/>
+        <v>0.68025462962962968</v>
+      </c>
+      <c r="C642" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D642" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E642" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="643" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A643" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B643" s="4">
+        <f t="shared" si="10"/>
+        <v>0.68280092592592589</v>
+      </c>
+      <c r="C643" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D643" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E643" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="644" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A644" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B644" s="4">
+        <f t="shared" si="10"/>
+        <v>0.68466435185185182</v>
+      </c>
+      <c r="C644" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D644" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E644" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="645" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A645" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B645" s="4">
+        <f t="shared" si="10"/>
+        <v>0.68538194444444445</v>
+      </c>
+      <c r="C645" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D645" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E645" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="646" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A646" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B646" s="4">
+        <f t="shared" si="10"/>
+        <v>0.68645833333333328</v>
+      </c>
+      <c r="C646" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D646" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E646" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="647" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A647" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B647" s="4">
+        <f t="shared" si="10"/>
+        <v>0.68781250000000005</v>
+      </c>
+      <c r="C647" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D647" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E647" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="648" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A648" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B648" s="4">
+        <f t="shared" si="10"/>
+        <v>0.68932870370370369</v>
+      </c>
+      <c r="C648" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D648" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E648" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="649" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A649" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B649" s="4">
+        <f t="shared" si="10"/>
+        <v>0.69055555555555559</v>
+      </c>
+      <c r="C649" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D649" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E649" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="650" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A650" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B650" s="4">
+        <f t="shared" si="10"/>
+        <v>0.75862268518518505</v>
+      </c>
+      <c r="C650" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D650" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E650" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="651" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A651" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B651" s="4">
+        <f t="shared" ref="B651:B681" si="11">B635+(2.5/24)</f>
+        <v>0.76015046296296285</v>
+      </c>
+      <c r="C651" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D651" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E651" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="652" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A652" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B652" s="4">
+        <f t="shared" si="11"/>
+        <v>0.76165509259259256</v>
+      </c>
+      <c r="C652" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D652" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E652" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="653" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A653" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B653" s="4">
+        <f t="shared" si="11"/>
+        <v>0.76304398148148145</v>
+      </c>
+      <c r="C653" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D653" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E653" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="654" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A654" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B654" s="4">
+        <f t="shared" si="11"/>
+        <v>0.7637962962962962</v>
+      </c>
+      <c r="C654" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D654" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E654" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="655" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A655" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B655" s="4">
+        <f t="shared" si="11"/>
+        <v>0.76476851851851846</v>
+      </c>
+      <c r="C655" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D655" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E655" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="656" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A656" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B656" s="4">
+        <f t="shared" si="11"/>
+        <v>0.76662037037037034</v>
+      </c>
+      <c r="C656" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D656" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E656" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="657" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A657" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B657" s="4">
+        <f t="shared" si="11"/>
+        <v>0.76880787037037035</v>
+      </c>
+      <c r="C657" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D657" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E657" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="658" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A658" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B658" s="4">
+        <f t="shared" si="11"/>
+        <v>0.78442129629629631</v>
+      </c>
+      <c r="C658" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D658" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E658" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="659" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A659" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B659" s="4">
+        <f t="shared" si="11"/>
+        <v>0.78696759259259252</v>
+      </c>
+      <c r="C659" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D659" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E659" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="660" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A660" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B660" s="4">
+        <f t="shared" si="11"/>
+        <v>0.78883101851851845</v>
+      </c>
+      <c r="C660" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D660" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E660" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="661" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A661" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B661" s="4">
+        <f t="shared" si="11"/>
+        <v>0.78954861111111108</v>
+      </c>
+      <c r="C661" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D661" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E661" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="662" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A662" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B662" s="4">
+        <f t="shared" si="11"/>
+        <v>0.79062499999999991</v>
+      </c>
+      <c r="C662" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D662" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E662" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="663" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A663" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B663" s="4">
+        <f t="shared" si="11"/>
+        <v>0.79197916666666668</v>
+      </c>
+      <c r="C663" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D663" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E663" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="664" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A664" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B664" s="4">
+        <f t="shared" si="11"/>
+        <v>0.79349537037037032</v>
+      </c>
+      <c r="C664" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D664" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E664" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="665" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A665" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B665" s="4">
+        <f t="shared" si="11"/>
+        <v>0.79472222222222222</v>
+      </c>
+      <c r="C665" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D665" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E665" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="666" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A666" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B666" s="4">
+        <f t="shared" si="11"/>
+        <v>0.86278935185185168</v>
+      </c>
+      <c r="C666" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D666" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E666" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="667" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A667" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B667" s="4">
+        <f t="shared" si="11"/>
+        <v>0.86431712962962948</v>
+      </c>
+      <c r="C667" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D667" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E667" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="668" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A668" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B668" s="4">
+        <f t="shared" si="11"/>
+        <v>0.86582175925925919</v>
+      </c>
+      <c r="C668" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D668" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E668" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="669" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A669" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B669" s="4">
+        <f t="shared" si="11"/>
+        <v>0.86721064814814808</v>
+      </c>
+      <c r="C669" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D669" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E669" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="670" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A670" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B670" s="4">
+        <f t="shared" si="11"/>
+        <v>0.86796296296296283</v>
+      </c>
+      <c r="C670" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D670" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E670" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="671" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A671" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B671" s="4">
+        <f t="shared" si="11"/>
+        <v>0.86893518518518509</v>
+      </c>
+      <c r="C671" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D671" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E671" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="672" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A672" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B672" s="4">
+        <f t="shared" si="11"/>
+        <v>0.87078703703703697</v>
+      </c>
+      <c r="C672" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D672" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E672" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="673" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A673" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B673" s="4">
+        <f t="shared" si="11"/>
+        <v>0.87297453703703698</v>
+      </c>
+      <c r="C673" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D673" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E673" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="674" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A674" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B674" s="4">
+        <f t="shared" si="11"/>
+        <v>0.88858796296296294</v>
+      </c>
+      <c r="C674" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D674" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E674" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="675" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A675" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B675" s="4">
+        <f t="shared" si="11"/>
+        <v>0.89113425925925915</v>
+      </c>
+      <c r="C675" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D675" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E675" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="676" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A676" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B676" s="4">
+        <f t="shared" si="11"/>
+        <v>0.89299768518518507</v>
+      </c>
+      <c r="C676" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D676" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E676" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="677" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A677" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B677" s="4">
+        <f t="shared" si="11"/>
+        <v>0.89371527777777771</v>
+      </c>
+      <c r="C677" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D677" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E677" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="678" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A678" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B678" s="4">
+        <f t="shared" si="11"/>
+        <v>0.89479166666666654</v>
+      </c>
+      <c r="C678" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D678" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E678" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="679" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A679" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B679" s="4">
+        <f t="shared" si="11"/>
+        <v>0.89614583333333331</v>
+      </c>
+      <c r="C679" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D679" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E679" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="680" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A680" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B680" s="4">
+        <f t="shared" si="11"/>
+        <v>0.89766203703703695</v>
+      </c>
+      <c r="C680" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D680" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E680" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="681" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A681" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B681" s="4">
+        <f t="shared" si="11"/>
+        <v>0.89888888888888885</v>
+      </c>
+      <c r="C681" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D681" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E681" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="682" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C682" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D682" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="683" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C683" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D683" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="684" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C684" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D684" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="685" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C685" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D685" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="686" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C686" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D686" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="687" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C687" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D687" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="688" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C688" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D688" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="689" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C689" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D689" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="690" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C690" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D690" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="691" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C691" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D691" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="692" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C692" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D692" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="693" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C693" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D693" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="694" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C694" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D694" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="695" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C695" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D695" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="696" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C696" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D696" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="697" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C697" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D697" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="698" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C698" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D698" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="699" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C699" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D699" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="700" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C700" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D700" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="701" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C701" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D701" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="702" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C702" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D702" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="703" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C703" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D703" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="704" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C704" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D704" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="705" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C705" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D705" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="706" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C706" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D706" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="707" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C707" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D707" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="708" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C708" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D708" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="709" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C709" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D709" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="710" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C710" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D710" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="711" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C711" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D711" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="712" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C712" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D712" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="713" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C713" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D713" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="714" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C714" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D714" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="715" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C715" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D715" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="716" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C716" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D716" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="717" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C717" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D717" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="718" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C718" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D718" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="719" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C719" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D719" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="720" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C720" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D720" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="721" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C721" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D721" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="722" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C722" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D722" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="723" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C723" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D723" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="724" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C724" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D724" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="725" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C725" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D725" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="726" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C726" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D726" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="727" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C727" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D727" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="728" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C728" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D728" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="729" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C729" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D729" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="730" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C730" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D730" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="731" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C731" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D731" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="732" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C732" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D732" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="733" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C733" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D733" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="734" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C734" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D734" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="735" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C735" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D735" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="736" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C736" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D736" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="737" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C737" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D737" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="738" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C738" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D738" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="739" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C739" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D739" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="740" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C740" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D740" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="741" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C741" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D741" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="742" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C742" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D742" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="743" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C743" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D743" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="744" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C744" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D744" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="745" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C745" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D745" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="746" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C746" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D746" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="747" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C747" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D747" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="748" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C748" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D748" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="749" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C749" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D749" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="750" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C750" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D750" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="751" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C751" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D751" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="752" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C752" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D752" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="753" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C753" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D753" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="754" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C754" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D754" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="755" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C755" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D755" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="756" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C756" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D756" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="757" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C757" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D757" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="758" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C758" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D758" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="759" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C759" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D759" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="760" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C760" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D760" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="761" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C761" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D761" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="762" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C762" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D762" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="763" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C763" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D763" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="764" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C764" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D764" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="765" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C765" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D765" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="766" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C766" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D766" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="767" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C767" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D767" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="768" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C768" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D768" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="769" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C769" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D769" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="770" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C770" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D770" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="771" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C771" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D771" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="772" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C772" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D772" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="773" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C773" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D773" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="774" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C774" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D774" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="775" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C775" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D775" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="776" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C776" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D776" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="777" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C777" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D777" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="778" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C778" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D778" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="779" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C779" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D779" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="780" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C780" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D780" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="781" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C781" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D781" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="782" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C782" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D782" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="783" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C783" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D783" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="784" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C784" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D784" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="785" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C785" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D785" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="786" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C786" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D786" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="787" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C787" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D787" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="788" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C788" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D788" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="789" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C789" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D789" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="790" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C790" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D790" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="791" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C791" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D791" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="792" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C792" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D792" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="793" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C793" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D793" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="794" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C794" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D794" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="795" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C795" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D795" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="796" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C796" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D796" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="797" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C797" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D797" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="798" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C798" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D798" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="799" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C799" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D799" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="800" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C800" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D800" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="801" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C801" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D801" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="802" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C802" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D802" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="803" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C803" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D803" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="804" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C804" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D804" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="805" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C805" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D805" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="806" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C806" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D806" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="807" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C807" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D807" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="808" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C808" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D808" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="809" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C809" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D809" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="810" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C810" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D810" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="811" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C811" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D811" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="812" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C812" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D812" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="813" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C813" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D813" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="814" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C814" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D814" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="815" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C815" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D815" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="816" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C816" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D816" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="817" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C817" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D817" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="818" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C818" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D818" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="819" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C819" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D819" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="820" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C820" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D820" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="821" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C821" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D821" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="822" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C822" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D822" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="823" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C823" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D823" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="824" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C824" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D824" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="825" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C825" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D825" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="826" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C826" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D826" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="827" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C827" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D827" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="828" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C828" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D828" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="829" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C829" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D829" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="830" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C830" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D830" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="831" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C831" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D831" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="832" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C832" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D832" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="833" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C833" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D833" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="834" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C834" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D834" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="835" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C835" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D835" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="836" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C836" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D836" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="837" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C837" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D837" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="838" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C838" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D838" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="839" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C839" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D839" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="840" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C840" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D840" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="841" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C841" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D841" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="842" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C842" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D842" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="843" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C843" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D843" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="844" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C844" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D844" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="845" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C845" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D845" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="846" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C846" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D846" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="847" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C847" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D847" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="848" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C848" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D848" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="849" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C849" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D849" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="850" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C850" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D850" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="851" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C851" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D851" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="852" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C852" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D852" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="853" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C853" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D853" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="854" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C854" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D854" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="855" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C855" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D855" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="856" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C856" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D856" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="857" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C857" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D857" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="858" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C858" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D858" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="859" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C859" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D859" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="860" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C860" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D860" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="861" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C861" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D861" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="862" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C862" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D862" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="863" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C863" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D863" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="864" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C864" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D864" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="865" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C865" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D865" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="866" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C866" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D866" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="867" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C867" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D867" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="868" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C868" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D868" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="869" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C869" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D869" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="870" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C870" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D870" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="871" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C871" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D871" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="872" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C872" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D872" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="873" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C873" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D873" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="874" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C874" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D874" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="875" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C875" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D875" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="876" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C876" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D876" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="877" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C877" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D877" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="878" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C878" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D878" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="879" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C879" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D879" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="880" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C880" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D880" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="881" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C881" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D881" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="882" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C882" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D882" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="883" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C883" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D883" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="884" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C884" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D884" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="885" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C885" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D885" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="886" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C886" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D886" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="887" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C887" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D887" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="888" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C888" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D888" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="889" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C889" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D889" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="890" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C890" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D890" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="891" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C891" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D891" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="892" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C892" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D892" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="893" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C893" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D893" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="894" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C894" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D894" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="895" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C895" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D895" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="896" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C896" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D896" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="897" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C897" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D897" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="898" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C898" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D898" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="899" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C899" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D899" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="900" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C900" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D900" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="901" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C901" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D901" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="902" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C902" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D902" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="903" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C903" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D903" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="904" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C904" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D904" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="905" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C905" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D905" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="906" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C906" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D906" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="907" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C907" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D907" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="908" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C908" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D908" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="909" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C909" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D909" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="910" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C910" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D910" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="911" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C911" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D911" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="912" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C912" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D912" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="913" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C913" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D913" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="914" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C914" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D914" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="915" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C915" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D915" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="916" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C916" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D916" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="917" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C917" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D917" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="918" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C918" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D918" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="919" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C919" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D919" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="920" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C920" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D920" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="921" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C921" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D921" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="922" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C922" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D922" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="923" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C923" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D923" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="924" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C924" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D924" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="925" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C925" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D925" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="926" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C926" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D926" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="927" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C927" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D927" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="928" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C928" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D928" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="929" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C929" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D929" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="930" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C930" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D930" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="931" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C931" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D931" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="932" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C932" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D932" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="933" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C933" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D933" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="934" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C934" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D934" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="935" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C935" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D935" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="936" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C936" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D936" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="937" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C937" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D937" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="938" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C938" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D938" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="939" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C939" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D939" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="940" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C940" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D940" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="941" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C941" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D941" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="942" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C942" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D942" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="943" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C943" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D943" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="944" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C944" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D944" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="945" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C945" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D945" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="946" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C946" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D946" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="947" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C947" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D947" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="948" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C948" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D948" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="949" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C949" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D949" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="950" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C950" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D950" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="951" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C951" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D951" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="952" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C952" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D952" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="953" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C953" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D953" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="954" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C954" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D954" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="955" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C955" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D955" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="956" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C956" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D956" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="957" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C957" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D957" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="958" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C958" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D958" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="959" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C959" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D959" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="960" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C960" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D960" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="961" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C961" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D961" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="962" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C962" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D962" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="963" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C963" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D963" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="964" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C964" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D964" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="965" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C965" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D965" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="966" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C966" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D966" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="967" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C967" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D967" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="968" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C968" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D968" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="969" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C969" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D969" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="970" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C970" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D970" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="971" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C971" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D971" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="972" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C972" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D972" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="973" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C973" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D973" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="974" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C974" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D974" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="975" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C975" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D975" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="976" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C976" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D976" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="977" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C977" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D977" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="978" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C978" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D978" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="979" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C979" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D979" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="980" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C980" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D980" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="981" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C981" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D981" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="982" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C982" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D982" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="983" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C983" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D983" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="984" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C984" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D984" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="985" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C985" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D985" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="986" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C986" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D986" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="987" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C987" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D987" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="988" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C988" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D988" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="989" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C989" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D989" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="990" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C990" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D990" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="991" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C991" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D991" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="992" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C992" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D992" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="993" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C993" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D993" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="994" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C994" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D994" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="995" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C995" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D995" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="996" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C996" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D996" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="997" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C997" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D997" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="998" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C998" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D998" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="999" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C999" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D999" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1000" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1000" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1000" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1001" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1001" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1001" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1002" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1002" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1002" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1003" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1003" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1003" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1004" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1004" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1004" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1005" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1005" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1005" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1006" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1006" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1006" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1007" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1007" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1007" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1008" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1008" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1008" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1009" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1009" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1009" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1010" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1010" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1010" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1011" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1011" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1011" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1012" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1012" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1012" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1013" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1013" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1013" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1014" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1014" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1014" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1015" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1015" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1015" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1016" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1016" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1016" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1017" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1017" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1017" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1018" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1018" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1018" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1019" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1019" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1019" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1020" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1020" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1020" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1021" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1021" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1021" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1022" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1022" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1022" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1023" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1023" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1023" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1024" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1024" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1024" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1025" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1025" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1025" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1026" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1026" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1026" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1027" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1027" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1027" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1028" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1028" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1028" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1029" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1029" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1029" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1030" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1030" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1030" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1031" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1031" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1031" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1032" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1032" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1032" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1033" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1033" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1033" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1034" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1034" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1034" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1035" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1035" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1035" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1036" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1036" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1036" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1037" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1037" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1037" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1038" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1038" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1038" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1039" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1039" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1039" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1040" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1040" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1040" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1041" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1041" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1041" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1042" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1042" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1042" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1043" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1043" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1043" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1044" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1044" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1044" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1045" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1045" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1045" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1046" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1046" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1046" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1047" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1047" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1047" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1048" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1048" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1048" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1049" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1049" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1049" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1050" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1050" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1050" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1051" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1051" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1051" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1052" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1052" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1052" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1053" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1053" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1053" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1054" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1054" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1054" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1055" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1055" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1055" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1056" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1056" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1056" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1057" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1057" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1057" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1058" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1058" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1058" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1059" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1059" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1059" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1060" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1060" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1060" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1061" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1061" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1061" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1062" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1062" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1062" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1063" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1063" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1063" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1064" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1064" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1064" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1065" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1065" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1065" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1066" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1066" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1066" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1067" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1067" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1067" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1068" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1068" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1068" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1069" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1069" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1069" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1070" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1070" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1070" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1071" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1071" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1071" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1072" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1072" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1072" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1073" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1073" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1073" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1074" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1074" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1074" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1075" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1075" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1075" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1076" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1076" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1076" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1077" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1077" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1077" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1078" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1078" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1078" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1079" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1079" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1079" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1080" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1080" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1080" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1081" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1081" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1081" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1082" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1082" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1082" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1083" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1083" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1083" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1084" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1084" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1084" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1085" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1085" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1085" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1086" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1086" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1086" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1087" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1087" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1087" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1088" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1088" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1088" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1089" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1089" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1089" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1090" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1090" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1090" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1091" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1091" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1091" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1092" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1092" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1092" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1093" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1093" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1093" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1094" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1094" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1094" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1095" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1095" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1095" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1096" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1096" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1096" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1097" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1097" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1097" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1098" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1098" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1098" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1099" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1099" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1099" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1100" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1100" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1100" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1101" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1101" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1101" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1102" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1102" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1102" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1103" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1103" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1103" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1104" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1104" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1104" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1105" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1105" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1105" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1106" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1106" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1106" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1107" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1107" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1107" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1108" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1108" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1108" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1109" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1109" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1109" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1110" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1110" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1110" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1111" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1111" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1111" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1112" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1112" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1112" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1113" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1113" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1113" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1114" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1114" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1114" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1115" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1115" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1115" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1116" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1116" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1116" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1117" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1117" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1117" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1118" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1118" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1118" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1119" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1119" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1119" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1120" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1120" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1120" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1121" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1121" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1121" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1122" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1122" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1122" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1123" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1123" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1123" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1124" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1124" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1124" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1125" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1125" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1125" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1126" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1126" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1126" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1127" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1127" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1127" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1128" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1128" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1128" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1129" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1129" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1129" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dades/2S2.xlsx
+++ b/dades/2S2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mique_000\Desktop\Jocs (Notes)\Nimby Rails\Transports de Catalunya\Calculadores\dades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB0263D2-7CD2-423B-8EE3-D48725F58BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C370EC34-C5D1-4ADE-89EA-03945EF4598B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5645" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6157" uniqueCount="253">
   <si>
     <t>departure</t>
   </si>
@@ -739,6 +739,63 @@
   <si>
     <t>R22A.072</t>
   </si>
+  <si>
+    <t>R2B.001</t>
+  </si>
+  <si>
+    <t>R2B.002</t>
+  </si>
+  <si>
+    <t>R2B</t>
+  </si>
+  <si>
+    <t>Castelldefels</t>
+  </si>
+  <si>
+    <t>Sant Celoni</t>
+  </si>
+  <si>
+    <t>R2B.003</t>
+  </si>
+  <si>
+    <t>R2B.004</t>
+  </si>
+  <si>
+    <t>R2B.005</t>
+  </si>
+  <si>
+    <t>R2B.006</t>
+  </si>
+  <si>
+    <t>R2B.007</t>
+  </si>
+  <si>
+    <t>R2B.008</t>
+  </si>
+  <si>
+    <t>R2B.009</t>
+  </si>
+  <si>
+    <t>R2B.010</t>
+  </si>
+  <si>
+    <t>R2B.011</t>
+  </si>
+  <si>
+    <t>R2B.012</t>
+  </si>
+  <si>
+    <t>R2B.013</t>
+  </si>
+  <si>
+    <t>R2B.014</t>
+  </si>
+  <si>
+    <t>R2B.015</t>
+  </si>
+  <si>
+    <t>R2B.016</t>
+  </si>
 </sst>
 </file>
 
@@ -1072,10 +1129,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1417"/>
+  <dimension ref="A1:E1545"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1094" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1118" sqref="D1118"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1106,42 +1163,42 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -22687,7 +22744,7 @@
         <v>84</v>
       </c>
       <c r="B1211" s="1">
-        <f t="shared" ref="B1211:B1274" si="21">B1203+(2/24)</f>
+        <f t="shared" ref="B1211:B1273" si="21">B1203+(2/24)</f>
         <v>0.32385416666666667</v>
       </c>
       <c r="C1211" t="s">
@@ -26406,6 +26463,2294 @@
       </c>
       <c r="E1417" t="s">
         <v>162</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1418" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1418" s="1">
+        <v>0.28962962962962963</v>
+      </c>
+      <c r="C1418" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D1418" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1418" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1419" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1419" s="1">
+        <v>0.29116898148148146</v>
+      </c>
+      <c r="C1419" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D1419" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1419" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1420" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1420" s="1">
+        <v>0.29269675925925925</v>
+      </c>
+      <c r="C1420" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D1420" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1420" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1421" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1421" s="1">
+        <v>0.29410879629629633</v>
+      </c>
+      <c r="C1421" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D1421" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1421" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1422" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1422" s="1">
+        <v>0.29486111111111107</v>
+      </c>
+      <c r="C1422" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D1422" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1422" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1423" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1423" s="1">
+        <v>0.29584490740740738</v>
+      </c>
+      <c r="C1423" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D1423" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1423" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1424" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1424" s="1">
+        <v>0.2977083333333333</v>
+      </c>
+      <c r="C1424" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D1424" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1424" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1425" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1425" s="1">
+        <v>0.29991898148148149</v>
+      </c>
+      <c r="C1425" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D1425" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1425" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1426" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1426" s="1">
+        <v>0.31771990740740741</v>
+      </c>
+      <c r="C1426" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D1426" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1426" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1427" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1427" s="1">
+        <v>0.32028935185185187</v>
+      </c>
+      <c r="C1427" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D1427" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1427" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1428" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1428" s="1">
+        <v>0.32216435185185183</v>
+      </c>
+      <c r="C1428" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D1428" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1428" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1429" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1429" s="1">
+        <v>0.32288194444444446</v>
+      </c>
+      <c r="C1429" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D1429" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1429" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1430" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1430" s="1">
+        <v>0.32390046296296299</v>
+      </c>
+      <c r="C1430" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D1430" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1430" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1431" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1431" s="1">
+        <v>0.32533564814814814</v>
+      </c>
+      <c r="C1431" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D1431" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1431" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1432" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1432" s="1">
+        <v>0.32686342592592593</v>
+      </c>
+      <c r="C1432" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D1432" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1432" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1433" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1433" s="1">
+        <v>0.32809027777777777</v>
+      </c>
+      <c r="C1433" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D1433" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1433" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1434" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1434" s="1">
+        <f>B1418+(2/24)</f>
+        <v>0.37296296296296294</v>
+      </c>
+      <c r="C1434" t="s">
+        <v>239</v>
+      </c>
+      <c r="D1434" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1434" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1435" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1435" s="1">
+        <f t="shared" ref="B1435:B1498" si="25">B1419+(2/24)</f>
+        <v>0.37450231481481477</v>
+      </c>
+      <c r="C1435" t="s">
+        <v>239</v>
+      </c>
+      <c r="D1435" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1435" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1436" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1436" s="1">
+        <f t="shared" si="25"/>
+        <v>0.37603009259259257</v>
+      </c>
+      <c r="C1436" t="s">
+        <v>239</v>
+      </c>
+      <c r="D1436" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1436" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1437" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1437" s="1">
+        <f t="shared" si="25"/>
+        <v>0.37744212962962964</v>
+      </c>
+      <c r="C1437" t="s">
+        <v>239</v>
+      </c>
+      <c r="D1437" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1437" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1438" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1438" s="1">
+        <f t="shared" si="25"/>
+        <v>0.37819444444444439</v>
+      </c>
+      <c r="C1438" t="s">
+        <v>239</v>
+      </c>
+      <c r="D1438" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1438" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1439" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1439" s="1">
+        <f t="shared" si="25"/>
+        <v>0.37917824074074069</v>
+      </c>
+      <c r="C1439" t="s">
+        <v>239</v>
+      </c>
+      <c r="D1439" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1439" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1440" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1440" s="1">
+        <f t="shared" si="25"/>
+        <v>0.38104166666666661</v>
+      </c>
+      <c r="C1440" t="s">
+        <v>239</v>
+      </c>
+      <c r="D1440" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1440" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1441" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1441" s="1">
+        <f t="shared" si="25"/>
+        <v>0.38325231481481481</v>
+      </c>
+      <c r="C1441" t="s">
+        <v>239</v>
+      </c>
+      <c r="D1441" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1441" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1442" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1442" s="1">
+        <f t="shared" si="25"/>
+        <v>0.40105324074074072</v>
+      </c>
+      <c r="C1442" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1442" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1442" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1443" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1443" s="1">
+        <f t="shared" si="25"/>
+        <v>0.40362268518518518</v>
+      </c>
+      <c r="C1443" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1443" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1443" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1444" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1444" s="1">
+        <f t="shared" si="25"/>
+        <v>0.40549768518518514</v>
+      </c>
+      <c r="C1444" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1444" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1444" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1445" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1445" s="1">
+        <f t="shared" si="25"/>
+        <v>0.40621527777777777</v>
+      </c>
+      <c r="C1445" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1445" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1445" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1446" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1446" s="1">
+        <f t="shared" si="25"/>
+        <v>0.4072337962962963</v>
+      </c>
+      <c r="C1446" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1446" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1446" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1447" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1447" s="1">
+        <f t="shared" si="25"/>
+        <v>0.40866898148148145</v>
+      </c>
+      <c r="C1447" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1447" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1447" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1448" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1448" s="1">
+        <f t="shared" si="25"/>
+        <v>0.41019675925925925</v>
+      </c>
+      <c r="C1448" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1448" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1448" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1449" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1449" s="1">
+        <f t="shared" si="25"/>
+        <v>0.41142361111111109</v>
+      </c>
+      <c r="C1449" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1449" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1449" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1450" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1450" s="1">
+        <f t="shared" si="25"/>
+        <v>0.45629629629629626</v>
+      </c>
+      <c r="C1450" t="s">
+        <v>241</v>
+      </c>
+      <c r="D1450" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1450" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1451" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1451" s="1">
+        <f t="shared" si="25"/>
+        <v>0.45783564814814809</v>
+      </c>
+      <c r="C1451" t="s">
+        <v>241</v>
+      </c>
+      <c r="D1451" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1451" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1452" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1452" s="1">
+        <f t="shared" si="25"/>
+        <v>0.45936342592592588</v>
+      </c>
+      <c r="C1452" t="s">
+        <v>241</v>
+      </c>
+      <c r="D1452" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1452" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1453" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1453" s="1">
+        <f t="shared" si="25"/>
+        <v>0.46077546296296296</v>
+      </c>
+      <c r="C1453" t="s">
+        <v>241</v>
+      </c>
+      <c r="D1453" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1453" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1454" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1454" s="1">
+        <f t="shared" si="25"/>
+        <v>0.4615277777777777</v>
+      </c>
+      <c r="C1454" t="s">
+        <v>241</v>
+      </c>
+      <c r="D1454" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1454" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1455" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1455" s="1">
+        <f t="shared" si="25"/>
+        <v>0.46251157407407401</v>
+      </c>
+      <c r="C1455" t="s">
+        <v>241</v>
+      </c>
+      <c r="D1455" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1455" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1456" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1456" s="1">
+        <f t="shared" si="25"/>
+        <v>0.46437499999999993</v>
+      </c>
+      <c r="C1456" t="s">
+        <v>241</v>
+      </c>
+      <c r="D1456" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1456" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1457" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1457" s="1">
+        <f t="shared" si="25"/>
+        <v>0.46658564814814812</v>
+      </c>
+      <c r="C1457" t="s">
+        <v>241</v>
+      </c>
+      <c r="D1457" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1457" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1458" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1458" s="1">
+        <f t="shared" si="25"/>
+        <v>0.48438657407407404</v>
+      </c>
+      <c r="C1458" t="s">
+        <v>242</v>
+      </c>
+      <c r="D1458" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1458" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1459" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1459" s="1">
+        <f t="shared" si="25"/>
+        <v>0.4869560185185185</v>
+      </c>
+      <c r="C1459" t="s">
+        <v>242</v>
+      </c>
+      <c r="D1459" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1459" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1460" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1460" s="1">
+        <f t="shared" si="25"/>
+        <v>0.48883101851851846</v>
+      </c>
+      <c r="C1460" t="s">
+        <v>242</v>
+      </c>
+      <c r="D1460" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1460" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1461" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1461" s="1">
+        <f t="shared" si="25"/>
+        <v>0.48954861111111109</v>
+      </c>
+      <c r="C1461" t="s">
+        <v>242</v>
+      </c>
+      <c r="D1461" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1461" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1462" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1462" s="1">
+        <f t="shared" si="25"/>
+        <v>0.49056712962962962</v>
+      </c>
+      <c r="C1462" t="s">
+        <v>242</v>
+      </c>
+      <c r="D1462" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1462" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1463" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1463" s="1">
+        <f t="shared" si="25"/>
+        <v>0.49200231481481477</v>
+      </c>
+      <c r="C1463" t="s">
+        <v>242</v>
+      </c>
+      <c r="D1463" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1463" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1464" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1464" s="1">
+        <f t="shared" si="25"/>
+        <v>0.49353009259259256</v>
+      </c>
+      <c r="C1464" t="s">
+        <v>242</v>
+      </c>
+      <c r="D1464" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1464" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1465" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1465" s="1">
+        <f t="shared" si="25"/>
+        <v>0.4947569444444444</v>
+      </c>
+      <c r="C1465" t="s">
+        <v>242</v>
+      </c>
+      <c r="D1465" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1465" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1466" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1466" s="1">
+        <f t="shared" si="25"/>
+        <v>0.53962962962962957</v>
+      </c>
+      <c r="C1466" t="s">
+        <v>243</v>
+      </c>
+      <c r="D1466" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1466" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1467" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1467" s="1">
+        <f t="shared" si="25"/>
+        <v>0.5411689814814814</v>
+      </c>
+      <c r="C1467" t="s">
+        <v>243</v>
+      </c>
+      <c r="D1467" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1467" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1468" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1468" s="1">
+        <f t="shared" si="25"/>
+        <v>0.5426967592592592</v>
+      </c>
+      <c r="C1468" t="s">
+        <v>243</v>
+      </c>
+      <c r="D1468" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1468" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1469" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1469" s="1">
+        <f t="shared" si="25"/>
+        <v>0.54410879629629627</v>
+      </c>
+      <c r="C1469" t="s">
+        <v>243</v>
+      </c>
+      <c r="D1469" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1469" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1470" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1470" s="1">
+        <f t="shared" si="25"/>
+        <v>0.54486111111111102</v>
+      </c>
+      <c r="C1470" t="s">
+        <v>243</v>
+      </c>
+      <c r="D1470" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1470" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1471" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1471" s="1">
+        <f t="shared" si="25"/>
+        <v>0.54584490740740732</v>
+      </c>
+      <c r="C1471" t="s">
+        <v>243</v>
+      </c>
+      <c r="D1471" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1471" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1472" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1472" s="1">
+        <f t="shared" si="25"/>
+        <v>0.54770833333333324</v>
+      </c>
+      <c r="C1472" t="s">
+        <v>243</v>
+      </c>
+      <c r="D1472" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1472" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1473" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1473" s="1">
+        <f t="shared" si="25"/>
+        <v>0.54991898148148144</v>
+      </c>
+      <c r="C1473" t="s">
+        <v>243</v>
+      </c>
+      <c r="D1473" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1473" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1474" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1474" s="1">
+        <f t="shared" si="25"/>
+        <v>0.56771990740740741</v>
+      </c>
+      <c r="C1474" t="s">
+        <v>244</v>
+      </c>
+      <c r="D1474" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1474" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1475" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1475" s="1">
+        <f t="shared" si="25"/>
+        <v>0.57028935185185181</v>
+      </c>
+      <c r="C1475" t="s">
+        <v>244</v>
+      </c>
+      <c r="D1475" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1475" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1476" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1476" s="1">
+        <f t="shared" si="25"/>
+        <v>0.57216435185185177</v>
+      </c>
+      <c r="C1476" t="s">
+        <v>244</v>
+      </c>
+      <c r="D1476" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1476" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1477" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1477" s="1">
+        <f t="shared" si="25"/>
+        <v>0.5728819444444444</v>
+      </c>
+      <c r="C1477" t="s">
+        <v>244</v>
+      </c>
+      <c r="D1477" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1477" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1478" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1478" s="1">
+        <f t="shared" si="25"/>
+        <v>0.57390046296296293</v>
+      </c>
+      <c r="C1478" t="s">
+        <v>244</v>
+      </c>
+      <c r="D1478" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1478" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1479" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1479" s="1">
+        <f t="shared" si="25"/>
+        <v>0.57533564814814808</v>
+      </c>
+      <c r="C1479" t="s">
+        <v>244</v>
+      </c>
+      <c r="D1479" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1479" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1480" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1480" s="1">
+        <f t="shared" si="25"/>
+        <v>0.57686342592592588</v>
+      </c>
+      <c r="C1480" t="s">
+        <v>244</v>
+      </c>
+      <c r="D1480" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1480" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1481" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1481" s="1">
+        <f t="shared" si="25"/>
+        <v>0.57809027777777777</v>
+      </c>
+      <c r="C1481" t="s">
+        <v>244</v>
+      </c>
+      <c r="D1481" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1481" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1482" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1482" s="1">
+        <f t="shared" si="25"/>
+        <v>0.62296296296296294</v>
+      </c>
+      <c r="C1482" t="s">
+        <v>245</v>
+      </c>
+      <c r="D1482" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1482" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1483" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1483" s="1">
+        <f t="shared" si="25"/>
+        <v>0.62450231481481477</v>
+      </c>
+      <c r="C1483" t="s">
+        <v>245</v>
+      </c>
+      <c r="D1483" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1483" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1484" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1484" s="1">
+        <f t="shared" si="25"/>
+        <v>0.62603009259259257</v>
+      </c>
+      <c r="C1484" t="s">
+        <v>245</v>
+      </c>
+      <c r="D1484" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1484" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1485" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1485" s="1">
+        <f t="shared" si="25"/>
+        <v>0.62744212962962964</v>
+      </c>
+      <c r="C1485" t="s">
+        <v>245</v>
+      </c>
+      <c r="D1485" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1485" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1486" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1486" s="1">
+        <f t="shared" si="25"/>
+        <v>0.62819444444444439</v>
+      </c>
+      <c r="C1486" t="s">
+        <v>245</v>
+      </c>
+      <c r="D1486" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1486" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1487" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1487" s="1">
+        <f t="shared" si="25"/>
+        <v>0.62917824074074069</v>
+      </c>
+      <c r="C1487" t="s">
+        <v>245</v>
+      </c>
+      <c r="D1487" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1487" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1488" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1488" s="1">
+        <f t="shared" si="25"/>
+        <v>0.63104166666666661</v>
+      </c>
+      <c r="C1488" t="s">
+        <v>245</v>
+      </c>
+      <c r="D1488" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1488" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1489" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1489" s="1">
+        <f t="shared" si="25"/>
+        <v>0.63325231481481481</v>
+      </c>
+      <c r="C1489" t="s">
+        <v>245</v>
+      </c>
+      <c r="D1489" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1489" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1490" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1490" s="1">
+        <f t="shared" si="25"/>
+        <v>0.65105324074074078</v>
+      </c>
+      <c r="C1490" t="s">
+        <v>246</v>
+      </c>
+      <c r="D1490" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1490" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1491" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1491" s="1">
+        <f t="shared" si="25"/>
+        <v>0.65362268518518518</v>
+      </c>
+      <c r="C1491" t="s">
+        <v>246</v>
+      </c>
+      <c r="D1491" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1491" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1492" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1492" s="1">
+        <f t="shared" si="25"/>
+        <v>0.65549768518518514</v>
+      </c>
+      <c r="C1492" t="s">
+        <v>246</v>
+      </c>
+      <c r="D1492" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1492" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1493" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1493" s="1">
+        <f t="shared" si="25"/>
+        <v>0.65621527777777777</v>
+      </c>
+      <c r="C1493" t="s">
+        <v>246</v>
+      </c>
+      <c r="D1493" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1493" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1494" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1494" s="1">
+        <f t="shared" si="25"/>
+        <v>0.6572337962962963</v>
+      </c>
+      <c r="C1494" t="s">
+        <v>246</v>
+      </c>
+      <c r="D1494" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1494" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1495" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1495" s="1">
+        <f t="shared" si="25"/>
+        <v>0.65866898148148145</v>
+      </c>
+      <c r="C1495" t="s">
+        <v>246</v>
+      </c>
+      <c r="D1495" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1495" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1496" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1496" s="1">
+        <f t="shared" si="25"/>
+        <v>0.66019675925925925</v>
+      </c>
+      <c r="C1496" t="s">
+        <v>246</v>
+      </c>
+      <c r="D1496" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1496" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1497" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1497" s="1">
+        <f t="shared" si="25"/>
+        <v>0.66142361111111114</v>
+      </c>
+      <c r="C1497" t="s">
+        <v>246</v>
+      </c>
+      <c r="D1497" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1497" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1498" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1498" s="1">
+        <f t="shared" si="25"/>
+        <v>0.70629629629629631</v>
+      </c>
+      <c r="C1498" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1498" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1498" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1499" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1499" s="1">
+        <f t="shared" ref="B1499:B1545" si="26">B1483+(2/24)</f>
+        <v>0.70783564814814814</v>
+      </c>
+      <c r="C1499" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1499" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1499" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1500" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1500" s="1">
+        <f t="shared" si="26"/>
+        <v>0.70936342592592594</v>
+      </c>
+      <c r="C1500" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1500" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1500" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1501" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1501" s="1">
+        <f t="shared" si="26"/>
+        <v>0.71077546296296301</v>
+      </c>
+      <c r="C1501" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1501" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1501" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1502" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1502" s="1">
+        <f t="shared" si="26"/>
+        <v>0.71152777777777776</v>
+      </c>
+      <c r="C1502" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1502" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1502" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1503" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1503" s="1">
+        <f t="shared" si="26"/>
+        <v>0.71251157407407406</v>
+      </c>
+      <c r="C1503" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1503" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1503" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1504" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1504" s="1">
+        <f t="shared" si="26"/>
+        <v>0.71437499999999998</v>
+      </c>
+      <c r="C1504" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1504" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1504" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1505" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1505" s="1">
+        <f t="shared" si="26"/>
+        <v>0.71658564814814818</v>
+      </c>
+      <c r="C1505" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1505" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1505" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1506" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1506" s="1">
+        <f t="shared" si="26"/>
+        <v>0.73438657407407415</v>
+      </c>
+      <c r="C1506" t="s">
+        <v>248</v>
+      </c>
+      <c r="D1506" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1506" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1507" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1507" s="1">
+        <f t="shared" si="26"/>
+        <v>0.73695601851851855</v>
+      </c>
+      <c r="C1507" t="s">
+        <v>248</v>
+      </c>
+      <c r="D1507" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1507" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1508" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1508" s="1">
+        <f t="shared" si="26"/>
+        <v>0.73883101851851851</v>
+      </c>
+      <c r="C1508" t="s">
+        <v>248</v>
+      </c>
+      <c r="D1508" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1508" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1509" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1509" s="1">
+        <f t="shared" si="26"/>
+        <v>0.73954861111111114</v>
+      </c>
+      <c r="C1509" t="s">
+        <v>248</v>
+      </c>
+      <c r="D1509" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1509" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1510" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1510" s="1">
+        <f t="shared" si="26"/>
+        <v>0.74056712962962967</v>
+      </c>
+      <c r="C1510" t="s">
+        <v>248</v>
+      </c>
+      <c r="D1510" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1510" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1511" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1511" s="1">
+        <f t="shared" si="26"/>
+        <v>0.74200231481481482</v>
+      </c>
+      <c r="C1511" t="s">
+        <v>248</v>
+      </c>
+      <c r="D1511" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1511" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1512" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1512" s="1">
+        <f t="shared" si="26"/>
+        <v>0.74353009259259262</v>
+      </c>
+      <c r="C1512" t="s">
+        <v>248</v>
+      </c>
+      <c r="D1512" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1512" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1513" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1513" s="1">
+        <f t="shared" si="26"/>
+        <v>0.74475694444444451</v>
+      </c>
+      <c r="C1513" t="s">
+        <v>248</v>
+      </c>
+      <c r="D1513" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1513" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1514" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1514" s="1">
+        <f t="shared" si="26"/>
+        <v>0.78962962962962968</v>
+      </c>
+      <c r="C1514" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1514" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1514" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1515" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1515" s="1">
+        <f t="shared" si="26"/>
+        <v>0.79116898148148151</v>
+      </c>
+      <c r="C1515" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1515" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1515" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1516" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1516" s="1">
+        <f t="shared" si="26"/>
+        <v>0.79269675925925931</v>
+      </c>
+      <c r="C1516" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1516" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1516" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1517" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1517" s="1">
+        <f t="shared" si="26"/>
+        <v>0.79410879629629638</v>
+      </c>
+      <c r="C1517" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1517" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1517" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1518" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1518" s="1">
+        <f t="shared" si="26"/>
+        <v>0.79486111111111113</v>
+      </c>
+      <c r="C1518" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1518" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1518" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1519" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1519" s="1">
+        <f t="shared" si="26"/>
+        <v>0.79584490740740743</v>
+      </c>
+      <c r="C1519" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1519" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1519" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1520" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1520" s="1">
+        <f t="shared" si="26"/>
+        <v>0.79770833333333335</v>
+      </c>
+      <c r="C1520" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1520" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1520" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1521" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1521" s="1">
+        <f t="shared" si="26"/>
+        <v>0.79991898148148155</v>
+      </c>
+      <c r="C1521" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1521" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1521" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1522" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1522" s="1">
+        <f t="shared" si="26"/>
+        <v>0.81771990740740752</v>
+      </c>
+      <c r="C1522" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1522" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1522" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1523" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1523" s="1">
+        <f t="shared" si="26"/>
+        <v>0.82028935185185192</v>
+      </c>
+      <c r="C1523" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1523" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1523" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1524" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1524" s="1">
+        <f t="shared" si="26"/>
+        <v>0.82216435185185188</v>
+      </c>
+      <c r="C1524" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1524" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1524" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1525" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1525" s="1">
+        <f t="shared" si="26"/>
+        <v>0.82288194444444451</v>
+      </c>
+      <c r="C1525" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1525" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1525" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1526" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1526" s="1">
+        <f t="shared" si="26"/>
+        <v>0.82390046296296304</v>
+      </c>
+      <c r="C1526" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1526" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1526" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1527" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1527" s="1">
+        <f t="shared" si="26"/>
+        <v>0.82533564814814819</v>
+      </c>
+      <c r="C1527" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1527" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1527" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1528" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1528" s="1">
+        <f t="shared" si="26"/>
+        <v>0.82686342592592599</v>
+      </c>
+      <c r="C1528" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1528" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1528" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1529" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1529" s="1">
+        <f t="shared" si="26"/>
+        <v>0.82809027777777788</v>
+      </c>
+      <c r="C1529" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1529" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1529" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1530" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1530" s="1">
+        <f t="shared" si="26"/>
+        <v>0.87296296296296305</v>
+      </c>
+      <c r="C1530" t="s">
+        <v>251</v>
+      </c>
+      <c r="D1530" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1530" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1531" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1531" s="1">
+        <f t="shared" si="26"/>
+        <v>0.87450231481481489</v>
+      </c>
+      <c r="C1531" t="s">
+        <v>251</v>
+      </c>
+      <c r="D1531" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1531" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1532" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1532" s="1">
+        <f t="shared" si="26"/>
+        <v>0.87603009259259268</v>
+      </c>
+      <c r="C1532" t="s">
+        <v>251</v>
+      </c>
+      <c r="D1532" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1532" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1533" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1533" s="1">
+        <f t="shared" si="26"/>
+        <v>0.87744212962962975</v>
+      </c>
+      <c r="C1533" t="s">
+        <v>251</v>
+      </c>
+      <c r="D1533" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1533" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1534" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1534" s="1">
+        <f t="shared" si="26"/>
+        <v>0.8781944444444445</v>
+      </c>
+      <c r="C1534" t="s">
+        <v>251</v>
+      </c>
+      <c r="D1534" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1534" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1535" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1535" s="1">
+        <f t="shared" si="26"/>
+        <v>0.8791782407407408</v>
+      </c>
+      <c r="C1535" t="s">
+        <v>251</v>
+      </c>
+      <c r="D1535" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1535" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1536" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1536" s="1">
+        <f t="shared" si="26"/>
+        <v>0.88104166666666672</v>
+      </c>
+      <c r="C1536" t="s">
+        <v>251</v>
+      </c>
+      <c r="D1536" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1536" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1537" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1537" s="1">
+        <f t="shared" si="26"/>
+        <v>0.88325231481481492</v>
+      </c>
+      <c r="C1537" t="s">
+        <v>251</v>
+      </c>
+      <c r="D1537" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1537" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1538" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1538" s="1">
+        <f t="shared" si="26"/>
+        <v>0.90105324074074089</v>
+      </c>
+      <c r="C1538" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1538" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1538" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1539" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1539" s="1">
+        <f t="shared" si="26"/>
+        <v>0.90362268518518529</v>
+      </c>
+      <c r="C1539" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1539" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1539" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1540" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1540" s="1">
+        <f t="shared" si="26"/>
+        <v>0.90549768518518525</v>
+      </c>
+      <c r="C1540" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1540" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1540" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1541" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1541" s="1">
+        <f t="shared" si="26"/>
+        <v>0.90621527777777788</v>
+      </c>
+      <c r="C1541" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1541" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1541" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1542" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1542" s="1">
+        <f t="shared" si="26"/>
+        <v>0.90723379629629641</v>
+      </c>
+      <c r="C1542" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1542" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1542" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1543" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1543" s="1">
+        <f t="shared" si="26"/>
+        <v>0.90866898148148156</v>
+      </c>
+      <c r="C1543" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1543" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1543" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1544" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1544" s="1">
+        <f t="shared" si="26"/>
+        <v>0.91019675925925936</v>
+      </c>
+      <c r="C1544" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1544" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1544" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1545" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1545" s="1">
+        <f t="shared" si="26"/>
+        <v>0.91142361111111125</v>
+      </c>
+      <c r="C1545" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1545" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1545" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>
